--- a/biology/Médecine/Syndrome_Mirage/Syndrome_Mirage.xlsx
+++ b/biology/Médecine/Syndrome_Mirage/Syndrome_Mirage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome MIRAGE[1] est une maladie génétique extrêmement rare (fréquence d'apparition inférieure à 1 cas sur 1 000 000 de naissance). Elle se caractérise par l'apparition de plusieurs symptômes : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome MIRAGE est une maladie génétique extrêmement rare (fréquence d'apparition inférieure à 1 cas sur 1 000 000 de naissance). Elle se caractérise par l'apparition de plusieurs symptômes : 
 - Myélodysplasie
 - Infections multiples et sévères 
 - Retard de croissance intra-utérin
@@ -517,11 +529,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette maladie résulte d'une modification du gène SAMD9 (en)[2], présent sur le chromosome 7. Elle apparaît dans une large majorité des cas de novo, c'est-à-dire une mutation du gène qui apparaît chez un individu alors qu'aucun des parents ne la possèdent dans son patrimoine génétique. C'est une mutation autosomique dominante, dont les premiers signes seront observés avant la naissance avec un retard de croissance. 
-Informations génétiques[3]
-Le gène SAMD9 (Sterile Alpha Motif Domain containing 9) est positionné sur le chromosome 7, son ancien nom était C7orf5, chromosome 7 open reading frame 5. Il est positionné sur le locus 7Q21.2 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maladie résulte d'une modification du gène SAMD9 (en), présent sur le chromosome 7. Elle apparaît dans une large majorité des cas de novo, c'est-à-dire une mutation du gène qui apparaît chez un individu alors qu'aucun des parents ne la possèdent dans son patrimoine génétique. C'est une mutation autosomique dominante, dont les premiers signes seront observés avant la naissance avec un retard de croissance. 
 </t>
         </is>
       </c>
@@ -547,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Informations génétiques[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène SAMD9 (Sterile Alpha Motif Domain containing 9) est positionné sur le chromosome 7, son ancien nom était C7orf5, chromosome 7 open reading frame 5. Il est positionné sur le locus 7Q21.2 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_Mirage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_Mirage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Histoire[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La première publication remonte à 2009 à l'époque 11 individus ont été recensés comme porteur de cette pathologie. 
 Il est difficile de savoir combien de patients ont été recensés, les différentes études évoquent des chiffres allant de 50 à 200 patients à travers le monde. 
@@ -558,76 +609,151 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Syndrome_Mirage</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_Mirage</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Symptômes[5]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Principaux symptômes
-Les symptômes sont très divers, on peut néanmoins noter un nombre important de symptômes, même s'il n'existe pas encore de consensus sur un diagnostic formel (à l'exception du diagnostic génétique).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principaux symptômes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les symptômes sont très divers, on peut néanmoins noter un nombre important de symptômes, même s'il n'existe pas encore de consensus sur un diagnostic formel (à l'exception du diagnostic génétique).
 Myélodysplasie, présent dans 85% des individus, qui peut être associé à une monosomie du chromosome 7 en mosaïque (présence d'un seul chromosome à la place des 2 chromosomes normalement présents).
 Infections récurrentes, présent dans 90% des individus, qui peuvent toucher aussi bien les poumons que voies urinaires, l'appareil digestif, la peau ou les oreilles (otites)
 Insuffisance surrénalienne, présent pour 80% des individus dès le plus jeune âge.
 Retard de croissance intra-uterine, présent pour 98% des individus. Ce retard de croissance conduit souvent à une naissance prématurée et induit un retard de développement cognitif et moteur
 Anomalie sur les parties génitales, présent pour 97% des individus masculins, avec comme des signes cliniques qui peuvent être un hypospade, un micropénis, une ambiguïté génitale.
-Complications gastro intestinale, présent pour 82% des individus, avec comme signes cliniques  Achalasie ou difficultés à s'alimenter avec des reflux gastriques, des diarrhées chroniques
-Symptômes secondaires
-Pâleur, fatigue, ecchymoses et saignement facile
+Complications gastro intestinale, présent pour 82% des individus, avec comme signes cliniques  Achalasie ou difficultés à s'alimenter avec des reflux gastriques, des diarrhées chroniques</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_Mirage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_Mirage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symptômes[5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Symptômes secondaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pâleur, fatigue, ecchymoses et saignement facile
 Atteinte du fonctionnement rénale
 Alacrimie ou hypolacrimie
-Trouble de l'oralité et de la parole
-Symptômes prénatales
-Avant la naissance certains signes peuvent être évocateur, bien sur il y a le retard de croissance avec une stagnation de la croissance pondérale autour de 800 à 1500g. Il est possible d'observer aussi une anomalie de l'appareil sexuel (hypospade, micropenis, cryptorchidie) ou une hypoplasie des glandes surrénaliennes. Une recherche génétique pourra mettre en évidence une mutation du gène SAMD9 connue comme pathogène (la liste des allèles pathogènes n'est pas exhaustive, d'autant plus que dans une grande majorité des cas la mutation apparait de novo). 
+Trouble de l'oralité et de la parole</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_Mirage</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_Mirage</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Symptômes[5]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Symptômes prénatales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la naissance certains signes peuvent être évocateur, bien sur il y a le retard de croissance avec une stagnation de la croissance pondérale autour de 800 à 1500g. Il est possible d'observer aussi une anomalie de l'appareil sexuel (hypospade, micropenis, cryptorchidie) ou une hypoplasie des glandes surrénaliennes. Une recherche génétique pourra mettre en évidence une mutation du gène SAMD9 connue comme pathogène (la liste des allèles pathogènes n'est pas exhaustive, d'autant plus que dans une grande majorité des cas la mutation apparait de novo). 
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Syndrome_Mirage</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_Mirage</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La stratégie thérapeutique est actuellement une stratégie symptomatique 
 Myélodysplasie : transfusion sanguine, apport en plaquettes, suivi et support de la multiplication des cellules hématopoïétiques, greffe de moelle osseuse
@@ -641,31 +767,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Syndrome_Mirage</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_Mirage</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Evolution[6]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espérance de vie médian est en dessous des 3 ans avec près de 60% des décédés dus à une infection.  
 Certaines études indiquent des patients âgés de plus de 20 ans et d'autres des personnes atteintes d'un variant pathogène mais sans symptôme clinique. 
